--- a/data/osl_parnaiba_table.xlsx
+++ b/data/osl_parnaiba_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iande\Documentos\proyectos\ML with lumi data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iande\Documentos\git\Seminario-R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16549E08-B200-4C61-AD19-47F852C92CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F8E2B0-C53B-4318-A3F4-C72C07FCCC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19020" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="by_aliquot" sheetId="1" r:id="rId1"/>
@@ -4699,8 +4699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L329"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E262" sqref="E262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17218,7 +17219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
